--- a/results/results_tool_10.10.2020.xlsx
+++ b/results/results_tool_10.10.2020.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="AND" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Project</t>
   </si>
@@ -44,6 +45,33 @@
   </si>
   <si>
     <t>Catalina</t>
+  </si>
+  <si>
+    <t>ant.jar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ant.jar</t>
+  </si>
+  <si>
+    <t>PR_U2_W</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>PR_U</t>
+  </si>
+  <si>
+    <t>CONN_TOTAL_W</t>
+  </si>
+  <si>
+    <t>CONN_TOTAL</t>
+  </si>
+  <si>
+    <t>AND Count</t>
+  </si>
+  <si>
+    <t>OR Count</t>
   </si>
 </sst>
 </file>
@@ -202,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -216,6 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,6 +260,1422 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AND!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR_U2_W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AND!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AND!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.697081712062256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64435797665369599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74513618677042803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65797665369649805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62626459143968805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75466926070038898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80875486381322903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86945525291828696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79494163424124498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79494163424124498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AND!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AND!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AND!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.69688715953307401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64435797665369599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74513618677042803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.654669260700389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62587548638132195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75466926070038898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80875486381322903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86945525291828696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79494163424124498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79494163424124498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AND!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR_U</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AND!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AND!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.69688715953307401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64435797665369599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74513618677042803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.654669260700389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62587548638132195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75466926070038898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80875486381322903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86945525291828696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79494163424124498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79494163424124498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AND!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CONN_TOTAL_W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AND!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AND!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.72490272373540798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69824902723735405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66614785992217895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65797665369649705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64961089494163404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72859922178988301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79649805447470801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84143968871595298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79902723735408498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79902723735408498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AND!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CONN_TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AND!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AND!$B$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.72490272373540798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69824902723735405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66614785992217895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65797665369649705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64961089494163404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72859922178988301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79649805447470801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84143968871595298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79902723735408498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79902723735408498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1407453552"/>
+        <c:axId val="-1407451376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1407453552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1407451376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1407451376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1407453552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,10 +1965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R6"/>
+  <dimension ref="B2:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,6 +1980,11 @@
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H2" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>0</v>
@@ -660,17 +2110,39 @@
       <c r="G5" s="6">
         <v>1617</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="6"/>
+      <c r="H5" s="4">
+        <v>11684</v>
+      </c>
+      <c r="I5" s="5">
+        <v>6576</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3835</v>
+      </c>
+      <c r="K5" s="5">
+        <v>2512</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1293</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1059</v>
+      </c>
+      <c r="N5" s="5">
+        <v>661</v>
+      </c>
+      <c r="O5" s="5">
+        <v>477</v>
+      </c>
+      <c r="P5" s="5">
+        <v>284</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>144</v>
+      </c>
+      <c r="R5" s="6">
+        <v>130</v>
+      </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
@@ -691,19 +2163,514 @@
       <c r="G6" s="9">
         <v>20777</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="9"/>
+      <c r="H6" s="7">
+        <v>148636</v>
+      </c>
+      <c r="I6" s="8">
+        <v>130045</v>
+      </c>
+      <c r="J6" s="8">
+        <v>102457</v>
+      </c>
+      <c r="K6" s="8">
+        <v>54446</v>
+      </c>
+      <c r="L6" s="8">
+        <v>27084</v>
+      </c>
+      <c r="M6" s="8">
+        <v>15044</v>
+      </c>
+      <c r="N6" s="8">
+        <v>6122</v>
+      </c>
+      <c r="O6" s="8">
+        <v>2482</v>
+      </c>
+      <c r="P6" s="8">
+        <v>1648</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>1430</v>
+      </c>
+      <c r="R6" s="9">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H7" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2">
+        <v>40</v>
+      </c>
+      <c r="M8" s="2">
+        <v>50</v>
+      </c>
+      <c r="N8" s="2">
+        <v>60</v>
+      </c>
+      <c r="O8" s="2">
+        <v>70</v>
+      </c>
+      <c r="P8" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>90</v>
+      </c>
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1314</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4601</v>
+      </c>
+      <c r="E9" s="5">
+        <v>524</v>
+      </c>
+      <c r="F9" s="5">
+        <v>485</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2118</v>
+      </c>
+      <c r="H9" s="4">
+        <v>34486</v>
+      </c>
+      <c r="I9" s="5">
+        <v>14620</v>
+      </c>
+      <c r="J9" s="5">
+        <v>8216</v>
+      </c>
+      <c r="K9" s="5">
+        <v>5403</v>
+      </c>
+      <c r="L9" s="5">
+        <v>4283</v>
+      </c>
+      <c r="M9" s="5">
+        <v>2965</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1268</v>
+      </c>
+      <c r="O9" s="5">
+        <v>800</v>
+      </c>
+      <c r="P9" s="5">
+        <v>615</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>535</v>
+      </c>
+      <c r="R9" s="6">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3018</v>
+      </c>
+      <c r="D10" s="5">
+        <v>14931</v>
+      </c>
+      <c r="E10" s="5">
+        <v>685</v>
+      </c>
+      <c r="F10" s="5">
+        <v>576</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1617</v>
+      </c>
+      <c r="H10" s="4">
+        <v>11684</v>
+      </c>
+      <c r="I10" s="5">
+        <v>6576</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3835</v>
+      </c>
+      <c r="K10" s="5">
+        <v>2512</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1293</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1059</v>
+      </c>
+      <c r="N10" s="5">
+        <v>661</v>
+      </c>
+      <c r="O10" s="5">
+        <v>477</v>
+      </c>
+      <c r="P10" s="5">
+        <v>284</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>144</v>
+      </c>
+      <c r="R10" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8">
+        <v>10051</v>
+      </c>
+      <c r="D11" s="8">
+        <v>5255</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4477</v>
+      </c>
+      <c r="F11" s="8">
+        <v>3671</v>
+      </c>
+      <c r="G11" s="9">
+        <v>20777</v>
+      </c>
+      <c r="H11" s="7">
+        <v>148636</v>
+      </c>
+      <c r="I11" s="8">
+        <v>130045</v>
+      </c>
+      <c r="J11" s="8">
+        <v>102457</v>
+      </c>
+      <c r="K11" s="8">
+        <v>54446</v>
+      </c>
+      <c r="L11" s="8">
+        <v>27084</v>
+      </c>
+      <c r="M11" s="8">
+        <v>15044</v>
+      </c>
+      <c r="N11" s="8">
+        <v>6122</v>
+      </c>
+      <c r="O11" s="8">
+        <v>2482</v>
+      </c>
+      <c r="P11" s="8">
+        <v>1648</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>1430</v>
+      </c>
+      <c r="R11" s="9">
+        <v>1430</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <v>70</v>
+      </c>
+      <c r="I3">
+        <v>80</v>
+      </c>
+      <c r="J3">
+        <v>90</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.697081712062256</v>
+      </c>
+      <c r="C4">
+        <v>0.64435797665369599</v>
+      </c>
+      <c r="D4">
+        <v>0.74513618677042803</v>
+      </c>
+      <c r="E4">
+        <v>0.65797665369649805</v>
+      </c>
+      <c r="F4">
+        <v>0.62626459143968805</v>
+      </c>
+      <c r="G4">
+        <v>0.75466926070038898</v>
+      </c>
+      <c r="H4">
+        <v>0.80875486381322903</v>
+      </c>
+      <c r="I4">
+        <v>0.86945525291828696</v>
+      </c>
+      <c r="J4">
+        <v>0.79494163424124498</v>
+      </c>
+      <c r="K4">
+        <v>0.79494163424124498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.69688715953307401</v>
+      </c>
+      <c r="C5">
+        <v>0.64435797665369599</v>
+      </c>
+      <c r="D5">
+        <v>0.74513618677042803</v>
+      </c>
+      <c r="E5">
+        <v>0.654669260700389</v>
+      </c>
+      <c r="F5">
+        <v>0.62587548638132195</v>
+      </c>
+      <c r="G5">
+        <v>0.75466926070038898</v>
+      </c>
+      <c r="H5">
+        <v>0.80875486381322903</v>
+      </c>
+      <c r="I5">
+        <v>0.86945525291828696</v>
+      </c>
+      <c r="J5">
+        <v>0.79494163424124498</v>
+      </c>
+      <c r="K5">
+        <v>0.79494163424124498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.69688715953307401</v>
+      </c>
+      <c r="C6">
+        <v>0.64435797665369599</v>
+      </c>
+      <c r="D6">
+        <v>0.74513618677042803</v>
+      </c>
+      <c r="E6">
+        <v>0.654669260700389</v>
+      </c>
+      <c r="F6">
+        <v>0.62587548638132195</v>
+      </c>
+      <c r="G6">
+        <v>0.75466926070038898</v>
+      </c>
+      <c r="H6">
+        <v>0.80875486381322903</v>
+      </c>
+      <c r="I6">
+        <v>0.86945525291828696</v>
+      </c>
+      <c r="J6">
+        <v>0.79494163424124498</v>
+      </c>
+      <c r="K6">
+        <v>0.79494163424124498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.72490272373540798</v>
+      </c>
+      <c r="C7">
+        <v>0.69824902723735405</v>
+      </c>
+      <c r="D7">
+        <v>0.66614785992217895</v>
+      </c>
+      <c r="E7">
+        <v>0.65797665369649705</v>
+      </c>
+      <c r="F7">
+        <v>0.64961089494163404</v>
+      </c>
+      <c r="G7">
+        <v>0.72859922178988301</v>
+      </c>
+      <c r="H7">
+        <v>0.79649805447470801</v>
+      </c>
+      <c r="I7">
+        <v>0.84143968871595298</v>
+      </c>
+      <c r="J7">
+        <v>0.79902723735408498</v>
+      </c>
+      <c r="K7">
+        <v>0.79902723735408498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0.72490272373540798</v>
+      </c>
+      <c r="C8">
+        <v>0.69824902723735405</v>
+      </c>
+      <c r="D8">
+        <v>0.66614785992217895</v>
+      </c>
+      <c r="E8">
+        <v>0.65797665369649705</v>
+      </c>
+      <c r="F8">
+        <v>0.64961089494163404</v>
+      </c>
+      <c r="G8">
+        <v>0.72859922178988301</v>
+      </c>
+      <c r="H8">
+        <v>0.79649805447470801</v>
+      </c>
+      <c r="I8">
+        <v>0.84143968871595298</v>
+      </c>
+      <c r="J8">
+        <v>0.79902723735408498</v>
+      </c>
+      <c r="K8">
+        <v>0.79902723735408498</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/results_tool_10.10.2020.xlsx
+++ b/results/results_tool_10.10.2020.xlsx
@@ -1491,11 +1491,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="632081584"/>
-        <c:axId val="632088656"/>
+        <c:axId val="-1494777216"/>
+        <c:axId val="-1494767424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="632081584"/>
+        <c:axId val="-1494777216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,7 +1538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632088656"/>
+        <c:crossAx val="-1494767424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1546,7 +1546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="632088656"/>
+        <c:axId val="-1494767424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,7 +1597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632081584"/>
+        <c:crossAx val="-1494777216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2237,11 +2237,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="632091376"/>
-        <c:axId val="632085392"/>
+        <c:axId val="-1494769600"/>
+        <c:axId val="-1494776128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="632091376"/>
+        <c:axId val="-1494769600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2284,7 +2284,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632085392"/>
+        <c:crossAx val="-1494776128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2292,7 +2292,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="632085392"/>
+        <c:axId val="-1494776128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,7 +2343,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632091376"/>
+        <c:crossAx val="-1494769600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3106,11 +3106,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="632080496"/>
-        <c:axId val="632087024"/>
+        <c:axId val="-1494776672"/>
+        <c:axId val="-1494770688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="632080496"/>
+        <c:axId val="-1494776672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3153,7 +3153,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632087024"/>
+        <c:crossAx val="-1494770688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3161,7 +3161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="632087024"/>
+        <c:axId val="-1494770688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3212,7 +3212,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632080496"/>
+        <c:crossAx val="-1494776672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3226,7 +3226,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3333,6 +3332,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3968,11 +3968,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="632077232"/>
-        <c:axId val="632078864"/>
+        <c:axId val="-1494781568"/>
+        <c:axId val="-1494782656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="632077232"/>
+        <c:axId val="-1494781568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4015,7 +4015,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632078864"/>
+        <c:crossAx val="-1494782656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4023,7 +4023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="632078864"/>
+        <c:axId val="-1494782656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4074,7 +4074,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632077232"/>
+        <c:crossAx val="-1494781568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4088,6 +4088,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4709,11 +4710,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="632087568"/>
-        <c:axId val="632091920"/>
+        <c:axId val="-1494778304"/>
+        <c:axId val="-1494777760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="632087568"/>
+        <c:axId val="-1494778304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4756,7 +4757,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632091920"/>
+        <c:crossAx val="-1494777760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4764,7 +4765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="632091920"/>
+        <c:axId val="-1494777760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4815,7 +4816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632087568"/>
+        <c:crossAx val="-1494778304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4935,7 +4936,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5376,11 +5376,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="632090288"/>
-        <c:axId val="632088112"/>
+        <c:axId val="-1494769056"/>
+        <c:axId val="-1494771776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="632090288"/>
+        <c:axId val="-1494769056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5422,7 +5422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632088112"/>
+        <c:crossAx val="-1494771776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5430,7 +5430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="632088112"/>
+        <c:axId val="-1494771776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5481,7 +5481,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632090288"/>
+        <c:crossAx val="-1494769056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5495,7 +5495,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9326,7 +9325,7 @@
   <dimension ref="B1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9420,34 +9419,34 @@
         <v>34486</v>
       </c>
       <c r="I4" s="5">
-        <v>14620</v>
+        <v>5914</v>
       </c>
       <c r="J4" s="5">
-        <v>8216</v>
+        <v>4331</v>
       </c>
       <c r="K4" s="5">
-        <v>5403</v>
+        <v>3757</v>
       </c>
       <c r="L4" s="5">
-        <v>4283</v>
+        <v>2392</v>
       </c>
       <c r="M4" s="5">
-        <v>2965</v>
+        <v>1214</v>
       </c>
       <c r="N4" s="5">
-        <v>1268</v>
+        <v>487</v>
       </c>
       <c r="O4" s="5">
-        <v>800</v>
+        <v>188</v>
       </c>
       <c r="P4" s="5">
-        <v>615</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="5">
-        <v>535</v>
+        <v>36</v>
       </c>
       <c r="R4" s="6">
-        <v>535</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
@@ -9473,34 +9472,34 @@
         <v>11684</v>
       </c>
       <c r="I5" s="5">
-        <v>6576</v>
+        <v>2944</v>
       </c>
       <c r="J5" s="5">
-        <v>3835</v>
+        <v>1643</v>
       </c>
       <c r="K5" s="5">
-        <v>2512</v>
+        <v>1166</v>
       </c>
       <c r="L5" s="5">
-        <v>1293</v>
+        <v>562</v>
       </c>
       <c r="M5" s="5">
-        <v>1059</v>
+        <v>537</v>
       </c>
       <c r="N5" s="5">
-        <v>661</v>
+        <v>420</v>
       </c>
       <c r="O5" s="5">
-        <v>477</v>
+        <v>330</v>
       </c>
       <c r="P5" s="5">
-        <v>284</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="5">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="R5" s="6">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
@@ -9526,34 +9525,34 @@
         <v>148636</v>
       </c>
       <c r="I6" s="8">
-        <v>130045</v>
+        <v>111563</v>
       </c>
       <c r="J6" s="8">
-        <v>102457</v>
+        <v>59618</v>
       </c>
       <c r="K6" s="8">
-        <v>54446</v>
+        <v>19230</v>
       </c>
       <c r="L6" s="8">
-        <v>27084</v>
+        <v>7543</v>
       </c>
       <c r="M6" s="8">
-        <v>15044</v>
+        <v>3300</v>
       </c>
       <c r="N6" s="8">
-        <v>6122</v>
+        <v>752</v>
       </c>
       <c r="O6" s="8">
-        <v>2482</v>
+        <v>289</v>
       </c>
       <c r="P6" s="8">
-        <v>1648</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="8">
-        <v>1430</v>
+        <v>133</v>
       </c>
       <c r="R6" s="9">
-        <v>1430</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
@@ -9783,7 +9782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
@@ -11828,13 +11827,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="20" customWidth="1"/>
     <col min="2" max="7" width="9.140625" style="20"/>
     <col min="8" max="8" width="10.5703125" style="20" customWidth="1"/>
     <col min="9" max="11" width="9.140625" style="20"/>

--- a/results/results_tool_10.10.2020.xlsx
+++ b/results/results_tool_10.10.2020.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="commit_and" sheetId="2" r:id="rId2"/>
     <sheet name="commit_or" sheetId="3" r:id="rId3"/>
+    <sheet name="weight_and" sheetId="5" r:id="rId4"/>
+    <sheet name="problems" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="59">
   <si>
     <t>Project</t>
   </si>
@@ -103,6 +105,96 @@
   </si>
   <si>
     <t>Struct only</t>
+  </si>
+  <si>
+    <t>org/hibernate/tool/schema/internal/AbstractSchemaMigrator.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/boot/registry/selector/internal/StrategySelectorImpl.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/boot/internal/SessionFactoryBuilderImpl$SessionFactoryOptionsStateStandardImpl.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/query/criteria/internal/CriteriaBuilderImpl.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/query/criteria/internal/expression/SearchedCaseExpression.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/query/criteria/internal/expression/SimpleCaseExpression.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/query/internal/QueryParameterBindingsImpl.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/query/internal/AbstractProducedQuery.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/cache/internal/CollectionCacheInvalidator.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/metamodel/internal/MetamodelImpl.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/tuple/TimestampGenerators.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/bytecode/enhance/spi/interceptor/LazyAttributesMetadata.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/procedure/internal/ProcedureOutputsImpl$ProcedureCurrentReturnState.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/proxy/pojo/bytebuddy/ByteBuddyProxyFactory.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/proxy/pojo/javassist/JavassistProxyFactory.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/hql/internal/ast/tree/FromElement.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/hql/internal/HolderInstantiator.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/result/internal/ResultSetOutputImpl.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/internal/CacheImpl.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/internal/SessionImpl.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/internal/AbstractSharedSessionContract.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/internal/SessionFactoryImpl.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/cfg/IndexOrUniqueKeySecondPass.class</t>
+  </si>
+  <si>
+    <t>org/hibernate/loader/custom/CustomLoader.class</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>org/apache/catalina/filters/RestCsrfPreventionFilter$FetchRequest.class</t>
+  </si>
+  <si>
+    <t>org/apache/catalina/filters/RestCsrfPreventionFilter$RestCsrfPreventionStrategy.class</t>
+  </si>
+  <si>
+    <t>org/apache/catalina/filters/RestCsrfPreventionFilter.class</t>
+  </si>
+  <si>
+    <t>org/apache/catalina/users/MemoryGroup.class</t>
+  </si>
+  <si>
+    <t>org/apache/catalina/users/MemoryUser.class</t>
   </si>
 </sst>
 </file>
@@ -245,7 +337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,6 +538,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,7 +834,7 @@
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -758,6 +856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -856,6 +955,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1491,11 +1591,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1494777216"/>
-        <c:axId val="-1494767424"/>
+        <c:axId val="-2019053584"/>
+        <c:axId val="-1997495056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1494777216"/>
+        <c:axId val="-2019053584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,7 +1638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1494767424"/>
+        <c:crossAx val="-1997495056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1546,7 +1646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1494767424"/>
+        <c:axId val="-1997495056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,7 +1697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1494777216"/>
+        <c:crossAx val="-2019053584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1611,6 +1711,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1722,6 +1823,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2237,11 +2339,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1494769600"/>
-        <c:axId val="-1494776128"/>
+        <c:axId val="-1997494512"/>
+        <c:axId val="-1997509200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1494769600"/>
+        <c:axId val="-1997494512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2284,7 +2386,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1494776128"/>
+        <c:crossAx val="-1997509200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2292,7 +2394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1494776128"/>
+        <c:axId val="-1997509200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,7 +2445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1494769600"/>
+        <c:crossAx val="-1997494512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2357,6 +2459,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3106,11 +3209,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1494776672"/>
-        <c:axId val="-1494770688"/>
+        <c:axId val="-1997496688"/>
+        <c:axId val="-1997507568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1494776672"/>
+        <c:axId val="-1997496688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3153,7 +3256,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1494770688"/>
+        <c:crossAx val="-1997507568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3161,7 +3264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1494770688"/>
+        <c:axId val="-1997507568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3212,7 +3315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1494776672"/>
+        <c:crossAx val="-1997496688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3226,6 +3329,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3968,11 +4072,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1494781568"/>
-        <c:axId val="-1494782656"/>
+        <c:axId val="-1997505392"/>
+        <c:axId val="-1997507024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1494781568"/>
+        <c:axId val="-1997505392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4015,7 +4119,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1494782656"/>
+        <c:crossAx val="-1997507024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4023,7 +4127,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1494782656"/>
+        <c:axId val="-1997507024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4074,7 +4178,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1494781568"/>
+        <c:crossAx val="-1997505392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4195,6 +4299,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4710,11 +4815,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1494778304"/>
-        <c:axId val="-1494777760"/>
+        <c:axId val="-1997508656"/>
+        <c:axId val="-1997508112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1494778304"/>
+        <c:axId val="-1997508656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4757,7 +4862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1494777760"/>
+        <c:crossAx val="-1997508112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4765,7 +4870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1494777760"/>
+        <c:axId val="-1997508112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4816,7 +4921,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1494778304"/>
+        <c:crossAx val="-1997508656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4830,6 +4935,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4936,6 +5042,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5376,11 +5483,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1494769056"/>
-        <c:axId val="-1494771776"/>
+        <c:axId val="-1997506480"/>
+        <c:axId val="-1997504304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1494769056"/>
+        <c:axId val="-1997506480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5422,7 +5529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1494771776"/>
+        <c:crossAx val="-1997504304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5430,7 +5537,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1494771776"/>
+        <c:axId val="-1997504304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5481,7 +5588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1494769056"/>
+        <c:crossAx val="-1997506480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5495,6 +5602,2408 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weight_and!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR_U2_W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weight_and!$C$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weight_and!$C$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.61361867704280104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.495719844357976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55739299610894899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68365758754863803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73988326848248998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71011673151750898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83754863813229496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88365758754863799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87237354085603103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87237354085603103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weight_and!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weight_and!$C$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weight_and!$C$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.735214007782101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.480933852140077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60564202334630302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67276264591439605</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70661478599221705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.707587548638132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83677042801556401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88365758754863799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87237354085603103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87237354085603103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weight_and!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR_U</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weight_and!$C$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weight_and!$C$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.735214007782101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.480933852140077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60661478599221696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67276264591439605</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70661478599221705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.707587548638132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83677042801556401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88365758754863799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87237354085603103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87237354085603103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weight_and!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CONN_TOTAL_W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weight_and!$C$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weight_and!$C$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.72217898832684801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60350194552529102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62762645914396797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60291828793774305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66906614785992202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71906614785992196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82782101167315103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87723735408560299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87237354085603103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87237354085603103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weight_and!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CONN_TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weight_and!$C$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weight_and!$C$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.77315175097276201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57898832684824897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62840466926070004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59669260700389104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66439688715953304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71906614785992196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82782101167315103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87723735408560299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87237354085603103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87237354085603103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1997498320"/>
+        <c:axId val="-1997497232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1997498320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1997497232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1997497232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1997498320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38449300087489069"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weight_and!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR_U2_W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weight_and!$C$27:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weight_and!$C$28:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.69346893373589502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62741670639334401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62789342655860902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71200805127389899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74077016791143202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77456433073785103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78563483235340303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79601673817468499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79601673817468499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79601673817468499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weight_and!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weight_and!$C$27:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weight_and!$C$29:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.67482387838338698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61888871232586196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62672811059907696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71200805127389899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74077016791143202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77456433073785103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78563483235340303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79601673817468499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79601673817468499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79601673817468499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weight_and!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR_U</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weight_and!$C$27:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weight_and!$C$30:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.67482387838338698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61963027702738205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62672811059907696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71200805127389899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74077016791143202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77456433073785103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78563483235340303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79601673817468499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79601673817468499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79601673817468499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weight_and!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CONN_TOTAL_W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weight_and!$C$27:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weight_and!$C$31:$L$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.65522538270035302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58859049737803804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61899465014036703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71200805127389899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74077016791143202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77456433073785103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78563483235340303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79601673817468499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79601673817468499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79601673817468499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weight_and!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CONN_TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weight_and!$C$27:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weight_and!$C$32:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.63308437946925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57889718735102402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61899465014036703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71200805127389899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74077016791143202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77456433073785103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78563483235340303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79601673817468499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79601673817468499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79601673817468499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2019056848"/>
+        <c:axId val="-1997496144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2019056848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1997496144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1997496144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2019056848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weight_and!$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR_U2_W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weight_and!$C$50:$H$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weight_and!$C$51:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.60559706300000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63973335099999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65406414999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65960324599999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66097191799999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66097191799999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weight_and!$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weight_and!$C$50:$H$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weight_and!$C$52:$H$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.60559706300000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63973335099999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65406414999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65960324599999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66097191799999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66097191799999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weight_and!$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR_U</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weight_and!$C$50:$H$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weight_and!$C$53:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.60559706300000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63973335099999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65406414999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65960324599999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66097191799999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66097191799999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weight_and!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CONN_TOTAL_W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weight_and!$C$50:$H$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weight_and!$C$54:$H$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.60559706300000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63973335099999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65406414999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65960324599999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66097191799999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66097191799999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weight_and!$B$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CONN_TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weight_and!$C$50:$H$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weight_and!$C$55:$H$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.60559706300000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63973335099999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65406414999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65960324599999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66097191799999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66097191799999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1669768176"/>
+        <c:axId val="-1669769264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1669768176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1669769264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1669769264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1669768176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5801,6 +8310,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -8343,6 +10972,1515 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9018,6 +13156,101 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9324,7 +13557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -9782,8 +14015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11827,7 +16060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -13862,4 +18095,1661 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:M65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29:L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="20">
+        <v>10</v>
+      </c>
+      <c r="D5" s="20">
+        <v>20</v>
+      </c>
+      <c r="E5" s="20">
+        <v>30</v>
+      </c>
+      <c r="F5" s="20">
+        <v>40</v>
+      </c>
+      <c r="G5" s="20">
+        <v>50</v>
+      </c>
+      <c r="H5" s="20">
+        <v>60</v>
+      </c>
+      <c r="I5" s="20">
+        <v>70</v>
+      </c>
+      <c r="J5" s="20">
+        <v>80</v>
+      </c>
+      <c r="K5" s="20">
+        <v>90</v>
+      </c>
+      <c r="L5" s="20">
+        <v>100</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.61361867704280104</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.495719844357976</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.55739299610894899</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.68365758754863803</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.73988326848248998</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.71011673151750898</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0.83754863813229496</v>
+      </c>
+      <c r="J6" s="21">
+        <v>0.88365758754863799</v>
+      </c>
+      <c r="K6" s="20">
+        <v>0.87237354085603103</v>
+      </c>
+      <c r="L6" s="20">
+        <v>0.87237354085603103</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0.92340696</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.735214007782101</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.480933852140077</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.60564202334630302</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.67276264591439605</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0.70661478599221705</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0.707587548638132</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0.83677042801556401</v>
+      </c>
+      <c r="J7" s="21">
+        <v>0.88365758754863799</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0.87237354085603103</v>
+      </c>
+      <c r="L7" s="20">
+        <v>0.87237354085603103</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0.92669753099999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0.735214007782101</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.480933852140077</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.60661478599221696</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0.67276264591439605</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0.70661478599221705</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0.707587548638132</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0.83677042801556401</v>
+      </c>
+      <c r="J8" s="21">
+        <v>0.88365758754863799</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0.87237354085603103</v>
+      </c>
+      <c r="L8" s="20">
+        <v>0.87237354085603103</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0.93219979900000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0.72217898832684801</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.60350194552529102</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0.62762645914396797</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0.60291828793774305</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0.66906614785992202</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0.71906614785992196</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0.82782101167315103</v>
+      </c>
+      <c r="J9" s="21">
+        <v>0.87723735408560299</v>
+      </c>
+      <c r="K9" s="20">
+        <v>0.87237354085603103</v>
+      </c>
+      <c r="L9" s="20">
+        <v>0.87237354085603103</v>
+      </c>
+      <c r="M9" s="17">
+        <v>0.925949468</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0.77315175097276201</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.57898832684824897</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.62840466926070004</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.59669260700389104</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.66439688715953304</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.71906614785992196</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0.82782101167315103</v>
+      </c>
+      <c r="J10" s="21">
+        <v>0.87723735408560299</v>
+      </c>
+      <c r="K10" s="20">
+        <v>0.87237354085603103</v>
+      </c>
+      <c r="L10" s="20">
+        <v>0.87237354085603103</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0.93903278800000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20">
+        <v>10</v>
+      </c>
+      <c r="D14" s="20">
+        <v>20</v>
+      </c>
+      <c r="E14" s="20">
+        <v>30</v>
+      </c>
+      <c r="F14" s="20">
+        <v>40</v>
+      </c>
+      <c r="G14" s="20">
+        <v>50</v>
+      </c>
+      <c r="H14" s="20">
+        <v>60</v>
+      </c>
+      <c r="I14" s="20">
+        <v>70</v>
+      </c>
+      <c r="J14" s="20">
+        <v>80</v>
+      </c>
+      <c r="K14" s="20">
+        <v>90</v>
+      </c>
+      <c r="L14" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0.697081712062256</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0.64435797665369599</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0.74513618677042803</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0.65797665369649805</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0.62626459143968805</v>
+      </c>
+      <c r="H15" s="20">
+        <v>0.75466926070038898</v>
+      </c>
+      <c r="I15" s="20">
+        <v>0.80875486381322903</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0.86945525291828696</v>
+      </c>
+      <c r="K15" s="20">
+        <v>0.79494163424124498</v>
+      </c>
+      <c r="L15" s="20">
+        <v>0.79494163424124498</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="20">
+        <v>0.69688715953307401</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.64435797665369599</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.74513618677042803</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0.654669260700389</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0.62587548638132195</v>
+      </c>
+      <c r="H16" s="20">
+        <v>0.75466926070038898</v>
+      </c>
+      <c r="I16" s="20">
+        <v>0.80875486381322903</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0.86945525291828696</v>
+      </c>
+      <c r="K16" s="20">
+        <v>0.79494163424124498</v>
+      </c>
+      <c r="L16" s="20">
+        <v>0.79494163424124498</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0.69688715953307401</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.64435797665369599</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0.74513618677042803</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0.654669260700389</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0.62587548638132195</v>
+      </c>
+      <c r="H17" s="20">
+        <v>0.75466926070038898</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0.80875486381322903</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0.86945525291828696</v>
+      </c>
+      <c r="K17" s="20">
+        <v>0.79494163424124498</v>
+      </c>
+      <c r="L17" s="20">
+        <v>0.79494163424124498</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0.72490272373540798</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.69824902723735405</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0.66614785992217895</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0.65797665369649705</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0.64961089494163404</v>
+      </c>
+      <c r="H18" s="20">
+        <v>0.72859922178988301</v>
+      </c>
+      <c r="I18" s="20">
+        <v>0.79649805447470801</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0.84143968871595298</v>
+      </c>
+      <c r="K18" s="20">
+        <v>0.79902723735408498</v>
+      </c>
+      <c r="L18" s="20">
+        <v>0.79902723735408498</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="20">
+        <v>0.72490272373540798</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0.69824902723735405</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0.66614785992217895</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0.65797665369649705</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0.64961089494163404</v>
+      </c>
+      <c r="H19" s="20">
+        <v>0.72859922178988301</v>
+      </c>
+      <c r="I19" s="20">
+        <v>0.79649805447470801</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0.84143968871595298</v>
+      </c>
+      <c r="K19" s="20">
+        <v>0.79902723735408498</v>
+      </c>
+      <c r="L19" s="20">
+        <v>0.79902723735408498</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="20">
+        <v>10</v>
+      </c>
+      <c r="D27" s="20">
+        <v>20</v>
+      </c>
+      <c r="E27" s="20">
+        <v>30</v>
+      </c>
+      <c r="F27" s="20">
+        <v>40</v>
+      </c>
+      <c r="G27" s="20">
+        <v>50</v>
+      </c>
+      <c r="H27" s="20">
+        <v>60</v>
+      </c>
+      <c r="I27" s="20">
+        <v>70</v>
+      </c>
+      <c r="J27" s="20">
+        <v>80</v>
+      </c>
+      <c r="K27" s="20">
+        <v>90</v>
+      </c>
+      <c r="L27" s="20">
+        <v>100</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="20">
+        <v>0.69346893373589502</v>
+      </c>
+      <c r="D28" s="20">
+        <v>0.62741670639334401</v>
+      </c>
+      <c r="E28" s="20">
+        <v>0.62789342655860902</v>
+      </c>
+      <c r="F28" s="20">
+        <v>0.71200805127389899</v>
+      </c>
+      <c r="G28" s="20">
+        <v>0.74077016791143202</v>
+      </c>
+      <c r="H28" s="20">
+        <v>0.77456433073785103</v>
+      </c>
+      <c r="I28" s="20">
+        <v>0.78563483235340303</v>
+      </c>
+      <c r="J28" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="K28" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="L28" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="M28" s="17">
+        <v>0.92340696</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="20">
+        <v>0.67482387838338698</v>
+      </c>
+      <c r="D29" s="20">
+        <v>0.61888871232586196</v>
+      </c>
+      <c r="E29" s="20">
+        <v>0.62672811059907696</v>
+      </c>
+      <c r="F29" s="20">
+        <v>0.71200805127389899</v>
+      </c>
+      <c r="G29" s="20">
+        <v>0.74077016791143202</v>
+      </c>
+      <c r="H29" s="20">
+        <v>0.77456433073785103</v>
+      </c>
+      <c r="I29" s="20">
+        <v>0.78563483235340303</v>
+      </c>
+      <c r="J29" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="K29" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="L29" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="M29" s="17">
+        <v>0.92669753099999996</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="20">
+        <v>0.67482387838338698</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0.61963027702738205</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0.62672811059907696</v>
+      </c>
+      <c r="F30" s="20">
+        <v>0.71200805127389899</v>
+      </c>
+      <c r="G30" s="20">
+        <v>0.74077016791143202</v>
+      </c>
+      <c r="H30" s="20">
+        <v>0.77456433073785103</v>
+      </c>
+      <c r="I30" s="20">
+        <v>0.78563483235340303</v>
+      </c>
+      <c r="J30" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="K30" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="L30" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="M30" s="17">
+        <v>0.93219979900000005</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="20">
+        <v>0.65522538270035302</v>
+      </c>
+      <c r="D31" s="20">
+        <v>0.58859049737803804</v>
+      </c>
+      <c r="E31" s="20">
+        <v>0.61899465014036703</v>
+      </c>
+      <c r="F31" s="20">
+        <v>0.71200805127389899</v>
+      </c>
+      <c r="G31" s="20">
+        <v>0.74077016791143202</v>
+      </c>
+      <c r="H31" s="20">
+        <v>0.77456433073785103</v>
+      </c>
+      <c r="I31" s="20">
+        <v>0.78563483235340303</v>
+      </c>
+      <c r="J31" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="K31" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="L31" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="M31" s="17">
+        <v>0.925949468</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="20">
+        <v>0.63308437946925</v>
+      </c>
+      <c r="D32" s="20">
+        <v>0.57889718735102402</v>
+      </c>
+      <c r="E32" s="20">
+        <v>0.61899465014036703</v>
+      </c>
+      <c r="F32" s="20">
+        <v>0.71200805127389899</v>
+      </c>
+      <c r="G32" s="20">
+        <v>0.74077016791143202</v>
+      </c>
+      <c r="H32" s="20">
+        <v>0.77456433073785103</v>
+      </c>
+      <c r="I32" s="20">
+        <v>0.78563483235340303</v>
+      </c>
+      <c r="J32" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="K32" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="L32" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="M32" s="17">
+        <v>0.93903278800000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20">
+        <v>10</v>
+      </c>
+      <c r="D37" s="20">
+        <v>20</v>
+      </c>
+      <c r="E37" s="20">
+        <v>30</v>
+      </c>
+      <c r="F37" s="20">
+        <v>40</v>
+      </c>
+      <c r="G37" s="20">
+        <v>50</v>
+      </c>
+      <c r="H37" s="20">
+        <v>60</v>
+      </c>
+      <c r="I37" s="20">
+        <v>70</v>
+      </c>
+      <c r="J37" s="20">
+        <v>80</v>
+      </c>
+      <c r="K37" s="20">
+        <v>90</v>
+      </c>
+      <c r="L37" s="20">
+        <v>100</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="20">
+        <v>0.70204989671062801</v>
+      </c>
+      <c r="D38" s="20">
+        <v>0.62656920387732096</v>
+      </c>
+      <c r="E38" s="20">
+        <v>0.62683404841358004</v>
+      </c>
+      <c r="F38" s="20">
+        <v>0.71200805127389899</v>
+      </c>
+      <c r="G38" s="20">
+        <v>0.74077016791143202</v>
+      </c>
+      <c r="H38" s="20">
+        <v>0.77456433073785103</v>
+      </c>
+      <c r="I38" s="20">
+        <v>0.78563483235340303</v>
+      </c>
+      <c r="J38" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="K38" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="L38" s="16">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="M38" s="17">
+        <v>0.92340696</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="20">
+        <v>0.67482387838338698</v>
+      </c>
+      <c r="D39" s="20">
+        <v>0.61729964510831903</v>
+      </c>
+      <c r="E39" s="20">
+        <v>0.62662217278457399</v>
+      </c>
+      <c r="F39" s="20">
+        <v>0.71200805127389899</v>
+      </c>
+      <c r="G39" s="20">
+        <v>0.74077016791143202</v>
+      </c>
+      <c r="H39" s="20">
+        <v>0.77456433073785103</v>
+      </c>
+      <c r="I39" s="20">
+        <v>0.78563483235340303</v>
+      </c>
+      <c r="J39" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="K39" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="L39" s="16">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="M39" s="17">
+        <v>0.92669753099999996</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="20">
+        <v>0.67482387838338698</v>
+      </c>
+      <c r="D40" s="20">
+        <v>0.61804120980983901</v>
+      </c>
+      <c r="E40" s="20">
+        <v>0.62662217278457399</v>
+      </c>
+      <c r="F40" s="20">
+        <v>0.71200805127389899</v>
+      </c>
+      <c r="G40" s="20">
+        <v>0.74077016791143202</v>
+      </c>
+      <c r="H40" s="20">
+        <v>0.77456433073785103</v>
+      </c>
+      <c r="I40" s="20">
+        <v>0.78563483235340303</v>
+      </c>
+      <c r="J40" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="K40" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="L40" s="16">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="M40" s="17">
+        <v>0.93219979900000005</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="20">
+        <v>0.67556544308490696</v>
+      </c>
+      <c r="D41" s="20">
+        <v>0.59674770909476005</v>
+      </c>
+      <c r="E41" s="20">
+        <v>0.62429154086551097</v>
+      </c>
+      <c r="F41" s="20">
+        <v>0.71200805127389899</v>
+      </c>
+      <c r="G41" s="20">
+        <v>0.74077016791143202</v>
+      </c>
+      <c r="H41" s="20">
+        <v>0.77456433073785103</v>
+      </c>
+      <c r="I41" s="20">
+        <v>0.78563483235340303</v>
+      </c>
+      <c r="J41" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="K41" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="L41" s="16">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="M41" s="17">
+        <v>0.925949468</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="20">
+        <v>0.63811642565813698</v>
+      </c>
+      <c r="D42" s="20">
+        <v>0.58520048731394503</v>
+      </c>
+      <c r="E42" s="20">
+        <v>0.62429154086551097</v>
+      </c>
+      <c r="F42" s="20">
+        <v>0.71200805127389899</v>
+      </c>
+      <c r="G42" s="20">
+        <v>0.74077016791143202</v>
+      </c>
+      <c r="H42" s="20">
+        <v>0.77456433073785103</v>
+      </c>
+      <c r="I42" s="20">
+        <v>0.78563483235340303</v>
+      </c>
+      <c r="J42" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="K42" s="20">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="L42" s="16">
+        <v>0.79601673817468499</v>
+      </c>
+      <c r="M42" s="17">
+        <v>0.93903278800000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="20"/>
+      <c r="C49" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="20"/>
+      <c r="C50" s="20">
+        <v>50</v>
+      </c>
+      <c r="D50" s="20">
+        <v>60</v>
+      </c>
+      <c r="E50" s="20">
+        <v>70</v>
+      </c>
+      <c r="F50" s="20">
+        <v>80</v>
+      </c>
+      <c r="G50" s="20">
+        <v>90</v>
+      </c>
+      <c r="H50" s="20">
+        <v>100</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>0.60559706300000005</v>
+      </c>
+      <c r="D51">
+        <v>0.63973335099999995</v>
+      </c>
+      <c r="E51">
+        <v>0.65406414999999996</v>
+      </c>
+      <c r="F51">
+        <v>0.65960324599999998</v>
+      </c>
+      <c r="G51">
+        <v>0.66097191799999999</v>
+      </c>
+      <c r="H51">
+        <v>0.66097191799999999</v>
+      </c>
+      <c r="I51" s="17">
+        <v>0.95823135400000004</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>0.60559706300000005</v>
+      </c>
+      <c r="D52">
+        <v>0.63973335099999995</v>
+      </c>
+      <c r="E52">
+        <v>0.65406414999999996</v>
+      </c>
+      <c r="F52">
+        <v>0.65960324599999998</v>
+      </c>
+      <c r="G52">
+        <v>0.66097191799999999</v>
+      </c>
+      <c r="H52">
+        <v>0.66097191799999999</v>
+      </c>
+      <c r="I52" s="17">
+        <v>0.94943964999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>0.60559706300000005</v>
+      </c>
+      <c r="D53">
+        <v>0.63973335099999995</v>
+      </c>
+      <c r="E53">
+        <v>0.65406414999999996</v>
+      </c>
+      <c r="F53">
+        <v>0.65960324599999998</v>
+      </c>
+      <c r="G53">
+        <v>0.66097191799999999</v>
+      </c>
+      <c r="H53">
+        <v>0.66097191799999999</v>
+      </c>
+      <c r="I53" s="17">
+        <v>0.950598995</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <v>0.60559706300000005</v>
+      </c>
+      <c r="D54">
+        <v>0.63973335099999995</v>
+      </c>
+      <c r="E54">
+        <v>0.65406414999999996</v>
+      </c>
+      <c r="F54">
+        <v>0.65960324599999998</v>
+      </c>
+      <c r="G54">
+        <v>0.66097191799999999</v>
+      </c>
+      <c r="H54">
+        <v>0.66097191799999999</v>
+      </c>
+      <c r="I54" s="17">
+        <v>0.94436751299999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <v>0.60559706300000005</v>
+      </c>
+      <c r="D55">
+        <v>0.63973335099999995</v>
+      </c>
+      <c r="E55">
+        <v>0.65406414999999996</v>
+      </c>
+      <c r="F55">
+        <v>0.65960324599999998</v>
+      </c>
+      <c r="G55">
+        <v>0.66097191799999999</v>
+      </c>
+      <c r="H55">
+        <v>0.66097191799999999</v>
+      </c>
+      <c r="I55" s="17">
+        <v>0.94629975499999996</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="20"/>
+      <c r="C60" s="20">
+        <v>50</v>
+      </c>
+      <c r="D60" s="20">
+        <v>60</v>
+      </c>
+      <c r="E60" s="20">
+        <v>70</v>
+      </c>
+      <c r="F60" s="20">
+        <v>80</v>
+      </c>
+      <c r="G60" s="20">
+        <v>90</v>
+      </c>
+      <c r="H60" s="20">
+        <v>100</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="20">
+        <v>0.60559706299111804</v>
+      </c>
+      <c r="D61" s="20">
+        <v>0.63973335050883595</v>
+      </c>
+      <c r="E61" s="20">
+        <v>0.65406415045731203</v>
+      </c>
+      <c r="F61" s="20">
+        <v>0.65960324616773502</v>
+      </c>
+      <c r="G61" s="20">
+        <v>0.66097191807292599</v>
+      </c>
+      <c r="H61" s="20">
+        <v>0.66097191807292599</v>
+      </c>
+      <c r="I61" s="17">
+        <v>0.95823135400000004</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="20">
+        <v>0.60559706299111804</v>
+      </c>
+      <c r="D62" s="20">
+        <v>0.63973335050883595</v>
+      </c>
+      <c r="E62" s="20">
+        <v>0.65406415045731203</v>
+      </c>
+      <c r="F62" s="20">
+        <v>0.65960324616773502</v>
+      </c>
+      <c r="G62" s="20">
+        <v>0.66097191807292599</v>
+      </c>
+      <c r="H62" s="20">
+        <v>0.66097191807292599</v>
+      </c>
+      <c r="I62" s="17">
+        <v>0.94943964999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="20">
+        <v>0.60559706299111804</v>
+      </c>
+      <c r="D63" s="20">
+        <v>0.63973335050883595</v>
+      </c>
+      <c r="E63" s="20">
+        <v>0.65406415045731203</v>
+      </c>
+      <c r="F63" s="20">
+        <v>0.65960324616773502</v>
+      </c>
+      <c r="G63" s="20">
+        <v>0.66097191807292599</v>
+      </c>
+      <c r="H63" s="20">
+        <v>0.66097191807292599</v>
+      </c>
+      <c r="I63" s="17">
+        <v>0.950598995</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="20">
+        <v>0.60559706299111804</v>
+      </c>
+      <c r="D64" s="20">
+        <v>0.63973335050883595</v>
+      </c>
+      <c r="E64" s="20">
+        <v>0.65406415045731203</v>
+      </c>
+      <c r="F64" s="20">
+        <v>0.65960324616773502</v>
+      </c>
+      <c r="G64" s="20">
+        <v>0.66097191807292599</v>
+      </c>
+      <c r="H64" s="20">
+        <v>0.66097191807292599</v>
+      </c>
+      <c r="I64" s="17">
+        <v>0.94436751299999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="20">
+        <v>0.60559706299111804</v>
+      </c>
+      <c r="D65" s="20">
+        <v>0.63973335050883595</v>
+      </c>
+      <c r="E65" s="20">
+        <v>0.65406415045731203</v>
+      </c>
+      <c r="F65" s="20">
+        <v>0.65960324616773502</v>
+      </c>
+      <c r="G65" s="20">
+        <v>0.66097191807292599</v>
+      </c>
+      <c r="H65" s="20">
+        <v>0.66097191807292599</v>
+      </c>
+      <c r="I65" s="17">
+        <v>0.94629975499999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:B35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="95.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>